--- a/machine_learning/result/特征列表.xlsx
+++ b/machine_learning/result/特征列表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhzhu/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhzhu/code_repository/git_project/ml_project/machine_learning/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B93C5EE-5D37-544A-844A-A05025B729AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E66E2A-CDD6-2744-953C-6066AE8B01C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="800" yWindow="1100" windowWidth="25040" windowHeight="14700" xr2:uid="{1032137A-B7DA-4C45-B95C-DFE478A67CA3}"/>
   </bookViews>
@@ -558,7 +558,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
